--- a/biology/Botanique/Forêt_fossile_de_Gilboa/Forêt_fossile_de_Gilboa.xlsx
+++ b/biology/Botanique/Forêt_fossile_de_Gilboa/Forêt_fossile_de_Gilboa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_fossile_de_Gilboa</t>
+          <t>Forêt_fossile_de_Gilboa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt fossile de Gilboa, dans l'État de New York aux États-Unis, est une forêt pétrifiée  et l'une des plus anciennes forêts connues[1],[2]. Située près du barrage de Gilboa (en) dans le comté de Schoharie, la région abrite des troncs d'arbres de la période dévonienne. Les fossiles proviendraient de l'une des premières forêts de la Terre et faisaient partie de sont reboisement. Les Paléobotanistes s'intéressent au site depuis les années 1920, lorsque des travaux de construction pour un projet de barrage, ont permis de découvrir plusieurs grandes souches fossilisées. Certains sont restent exposés sur le site du barrage de Gilboa et au centre des visiteurs de la New York Power Authority (en) dans le comté de Schoharie et au New York State Museum[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt fossile de Gilboa, dans l'État de New York aux États-Unis, est une forêt pétrifiée  et l'une des plus anciennes forêts connues,. Située près du barrage de Gilboa (en) dans le comté de Schoharie, la région abrite des troncs d'arbres de la période dévonienne. Les fossiles proviendraient de l'une des premières forêts de la Terre et faisaient partie de sont reboisement. Les Paléobotanistes s'intéressent au site depuis les années 1920, lorsque des travaux de construction pour un projet de barrage, ont permis de découvrir plusieurs grandes souches fossilisées. Certains sont restent exposés sur le site du barrage de Gilboa et au centre des visiteurs de la New York Power Authority (en) dans le comté de Schoharie et au New York State Museum.
 </t>
         </is>
       </c>
